--- a/Design/Table/Xlsx/Unit.xlsx
+++ b/Design/Table/Xlsx/Unit.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3C5D4F-9FF4-4671-B77B-FDA4CFB24B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A15460-39A9-4D2F-9C1D-636C2802F579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="content" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -755,18 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UT01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UT03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UT02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1#S001
 2#S002
 3#S003
@@ -927,6 +914,15 @@
   </si>
   <si>
     <t>model file</t>
+  </si>
+  <si>
+    <t>U001</t>
+  </si>
+  <si>
+    <t>U002</t>
+  </si>
+  <si>
+    <t>U003</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1460,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="35" customHeight="1"/>
@@ -1494,129 +1490,129 @@
   <sheetData>
     <row r="1" spans="1:35" ht="35" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:35" s="5" customFormat="1" ht="72.5">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5">
         <v>616.28</v>
@@ -1631,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L2" s="5">
         <v>57.88</v>
@@ -1655,7 +1651,7 @@
         <v>1500</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T2" s="5">
         <v>330</v>
@@ -1708,22 +1704,22 @@
     </row>
     <row r="3" spans="1:35" s="5" customFormat="1" ht="72.5">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G3" s="5">
         <v>527.72</v>
@@ -1738,7 +1734,7 @@
         <v>1.39</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L3" s="5">
         <v>56.51</v>
@@ -1762,7 +1758,7 @@
         <v>1500</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T3" s="5">
         <v>325</v>
@@ -1815,22 +1811,22 @@
     </row>
     <row r="4" spans="1:35" s="5" customFormat="1" ht="72.5">
       <c r="A4" s="5" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5">
         <v>492.76</v>
@@ -1845,7 +1841,7 @@
         <v>1.2</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L4" s="5">
         <v>50.71</v>
@@ -1869,7 +1865,7 @@
         <v>1500</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T4" s="5">
         <v>340</v>
